--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_83_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_83_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.14486479292965, 4.605979442348846]</t>
+          <t>[4.1429478833661975, 4.607896351912299]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.38863773580437755, 0.6606963373159171]</t>
+          <t>[0.3887882077063556, 0.6605458654139391]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>7.505900345705641e-10</v>
+        <v>7.291471870729538e-10</v>
       </c>
       <c r="V2" t="n">
-        <v>7.505900345705641e-10</v>
+        <v>7.291471870729538e-10</v>
       </c>
       <c r="W2" t="n">
         <v>11.42862862862897</v>
